--- a/13a.xlsx
+++ b/13a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C3D55E-0ED1-4F87-AB47-14C4085CCFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD4E75-C660-44D9-8201-56773CE864D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7853" yWindow="3413" windowWidth="28229" windowHeight="15097" xr2:uid="{8475C2FB-E1FE-4B10-8D62-3008A887F9B7}"/>
+    <workbookView xWindow="4500" yWindow="1500" windowWidth="28800" windowHeight="16200" xr2:uid="{8475C2FB-E1FE-4B10-8D62-3008A887F9B7}"/>
   </bookViews>
   <sheets>
     <sheet name="相関係数を求める" sheetId="6" r:id="rId1"/>
@@ -2471,14 +2471,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2881314" cy="654538"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3076575" cy="653833"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -2492,8 +2492,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3133725"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="685799" y="3133725"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2577,12 +2577,31 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2624,18 +2643,49 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑦</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:solidFill>
@@ -2748,18 +2798,61 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑥</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -2898,18 +2991,64 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑦</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -2994,7 +3133,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -3008,8 +3147,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3133725"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="685799" y="3133725"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3065,7 +3204,7 @@
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>((𝑥−𝑥 ̅ )</a:t>
+                <a:t>((𝑥_𝑖−𝑥 ̅ )</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3077,19 +3216,23 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑦−𝑦 ̅ ))〗)/(√(∑▒</a:t>
+                <a:t>(𝑦_𝑖−𝑦 ̅ ))〗)/(√(∑▒〖(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:prstClr val="black"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(𝑥−𝑥 ̅)〗^2</a:t>
+                <a:t>𝑥_𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3101,19 +3244,24 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ) √(∑▒</a:t>
+                <a:t>−𝑥 ̅)〗^2 ) √(∑▒〖(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:prstClr val="black"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(𝑦−𝑦 ̅)〗^2</a:t>
+                <a:t>𝑦_𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3125,7 +3273,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ))</a:t>
+                <a:t>−𝑦 ̅)〗^2 ))</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             </a:p>
@@ -3143,19 +3291,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>23811</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16975</xdr:rowOff>
+      <xdr:rowOff>31260</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2881314" cy="654538"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3076575" cy="653833"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C453C5-352A-4303-8C4B-805B0057572A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7EDD61-FF34-4324-B6B6-667EA5641164}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3163,8 +3311,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3150700"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="709611" y="3164985"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3248,12 +3396,31 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3295,18 +3462,49 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑦</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:solidFill>
@@ -3419,18 +3617,61 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑥</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -3569,18 +3810,64 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑦</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -3665,13 +3952,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C453C5-352A-4303-8C4B-805B0057572A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7EDD61-FF34-4324-B6B6-667EA5641164}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3679,8 +3966,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3150700"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="709611" y="3164985"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3736,7 +4023,7 @@
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>((𝑥−𝑥 ̅ )</a:t>
+                <a:t>((𝑥_𝑖−𝑥 ̅ )</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3748,19 +4035,23 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑦−𝑦 ̅ ))〗)/(√(∑▒</a:t>
+                <a:t>(𝑦_𝑖−𝑦 ̅ ))〗)/(√(∑▒〖(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:prstClr val="black"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(𝑥−𝑥 ̅)〗^2</a:t>
+                <a:t>𝑥_𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3772,19 +4063,24 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ) √(∑▒</a:t>
+                <a:t>−𝑥 ̅)〗^2 ) √(∑▒〖(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:prstClr val="black"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(𝑦−𝑦 ̅)〗^2</a:t>
+                <a:t>𝑦_𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -3796,7 +4092,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ))</a:t>
+                <a:t>−𝑦 ̅)〗^2 ))</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             </a:p>
@@ -3814,19 +4110,19 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16975</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2881314" cy="654538"/>
+    <xdr:ext cx="3076575" cy="653833"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14E644A-EC9B-4820-B0C5-4EC8FB4F0090}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968F0A9-7CEA-44A5-94FC-EEEAEE557CA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3834,8 +4130,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3150700"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="704850" y="3171826"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3919,12 +4215,31 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3966,18 +4281,49 @@
                                 </m:ctrlPr>
                               </m:dPr>
                               <m:e>
-                                <m:r>
-                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑦</m:t>
-                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
                                 <m:r>
                                   <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                     <a:solidFill>
@@ -4090,18 +4436,61 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑥</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -4240,18 +4629,64 @@
                                       </a:rPr>
                                       <m:t>(</m:t>
                                     </m:r>
-                                    <m:r>
-                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑦</m:t>
-                                    </m:r>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                                            <a:ln>
+                                              <a:noFill/>
+                                            </a:ln>
+                                            <a:solidFill>
+                                              <a:prstClr val="black"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:uLnTx/>
+                                            <a:uFillTx/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
                                     <m:r>
                                       <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1">
                                         <a:solidFill>
@@ -4339,10 +4774,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <xdr:cNvPr id="4" name="テキスト ボックス 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14E644A-EC9B-4820-B0C5-4EC8FB4F0090}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968F0A9-7CEA-44A5-94FC-EEEAEE557CA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4350,8 +4785,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="3150700"/>
-              <a:ext cx="2881314" cy="654538"/>
+              <a:off x="704850" y="3171826"/>
+              <a:ext cx="3076575" cy="653833"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4407,7 +4842,7 @@
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>((𝑥−𝑥 ̅ )</a:t>
+                <a:t>((𝑥_𝑖−𝑥 ̅ )</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
@@ -4419,7 +4854,64 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(𝑦−𝑦 ̅ ))〗)/(√(∑▒〖(𝑥−𝑥 ̅)〗^2 ) √(∑▒〖(𝑦−𝑦 ̅)〗^2 ))</a:t>
+                <a:t>(𝑦_𝑖−𝑦 ̅ ))〗)/(√(∑▒〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑥 ̅)〗^2 ) √(∑▒〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:prstClr val="black"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑦 ̅)〗^2 ))</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
             </a:p>
